--- a/Properties/Orion_Prosper_Lakes/OrionProsperLakes_WasteAnalysis_Validated.xlsx
+++ b/Properties/Orion_Prosper_Lakes/OrionProsperLakes_WasteAnalysis_Validated.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QUALITY_CHECK" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOCUMENTATION_NOTES" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CONTRACT_TERMS" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REGULATORY_COMPLIANCE" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,13 +34,42 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="001E3A8A"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00F59E0B"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <sz val="9"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEE2E2"/>
+        <bgColor rgb="00FEE2E2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DBEAFE"/>
+        <bgColor rgb="00DBEAFE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -60,11 +90,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -483,7 +519,6 @@
           <t>Prosper, Texas</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -494,7 +529,6 @@
       <c r="B4" t="n">
         <v>308</v>
       </c>
-      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -524,7 +558,6 @@
           <t>3-0615-0156898</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -575,19 +608,13 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
+    <row r="10"/>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
           <t>COST METRICS</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -636,19 +663,13 @@
         <v/>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
+    <row r="15"/>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
           <t>SERVICE METRICS</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -748,19 +769,13 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-    </row>
+    <row r="23"/>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
           <t>OPTIMIZATION ANALYSIS</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -813,19 +828,13 @@
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-    </row>
+    <row r="28"/>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
           <t>DATA QUALITY</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1056,19 +1065,13 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
+    <row r="3"/>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
           <t>Current State</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1119,19 +1122,13 @@
         <v/>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
+    <row r="8"/>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
           <t>Optimized State (Initial)</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1199,19 +1196,13 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
+    <row r="14"/>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
           <t>Adjusted State (14-Day Max)</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1262,19 +1253,13 @@
         <v/>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
+    <row r="19"/>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
           <t>Cost Analysis</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1357,19 +1342,13 @@
         <v/>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-    </row>
+    <row r="26"/>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
           <t>Monitor Costs (1 Compactor)</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1421,19 +1400,13 @@
         <v/>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-    </row>
+    <row r="31"/>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
           <t>Net Savings</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1483,19 +1456,13 @@
         <v/>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-    </row>
+    <row r="36"/>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
           <t>CONTAMINATION REDUCTION - NOT TRIGGERED</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1547,19 +1514,13 @@
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-    </row>
+    <row r="41"/>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
           <t>BULK SUBSCRIPTION - NOT TRIGGERED</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1653,8 +1614,6 @@
           <t>CONTRACT TAB</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1673,19 +1632,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
+    <row r="4"/>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
           <t>OPTIMIZATION CRITERIA</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1738,19 +1691,13 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
+    <row r="9"/>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
           <t>FORMULA ACCURACY</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1801,19 +1748,13 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
+    <row r="14"/>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
           <t>DATA COMPLETENESS</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1883,19 +1824,13 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
+    <row r="20"/>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
           <t>CROSS-VALIDATION</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1948,11 +1883,7 @@
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-    </row>
+    <row r="25"/>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
@@ -2012,8 +1943,6 @@
           <t>METHODOLOGY</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2066,19 +1995,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
+    <row r="6"/>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
           <t>ASSUMPTIONS</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2131,19 +2054,13 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
+    <row r="11"/>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
           <t>DATA LIMITATIONS</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2196,19 +2113,13 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
+    <row r="16"/>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
           <t>CALCULATION REFERENCES</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2244,19 +2155,13 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
+    <row r="20"/>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
           <t>CONFIDENCE ASSESSMENT</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2309,19 +2214,13 @@
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-    </row>
+    <row r="25"/>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
           <t>RECOMMENDATIONS</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2423,4 +2322,229 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>REGULATORY COMPLIANCE ANALYSIS - Orion Prosper Lakes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Research Date:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Confidence Level:</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>PROPERTY INFORMATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Location:</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Prosper, TX</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>State:</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Units:</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>RECYCLING REQUIREMENTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Status:</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>VERIFICATION REQUIRED</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>TEXAS FINDINGS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>[!] LIMITED INFORMATION AVAILABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Municipal ordinances not publicly accessible online</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Manual verification required with city solid waste department</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>Contact for Verification:</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Town of Prosper: 945-234-1924</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>RECOMMENDED NEXT STEPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1. Contact city solid waste department (contact info above)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2. Request solid waste ordinance and multifamily requirements</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3. Verify current waste hauler licensing status</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4. Update regulatory compliance summary with findings</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>Generated by: WasteWise Regulatory Compliance Analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>For detailed findings, see: Properties/Orion_Prosper_Lakes/Regulatory_Compliance_Summary.md</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A14:D14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>